--- a/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLogHistory.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/AchAuthLogHistory.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD54F7A-7C71-4F47-8DD9-A98A438740B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF66CC6-0715-48FA-824F-B485698B7E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,65 +348,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode:AuthStatus
-空白-未授權
-0-成功授權/取消授權
-1-印鑑不符
-2-無此帳號
-3-委繳戶統一編號不符
-4-已核印成功在案
-5-原交易不存在
-6-電子資料與授權書內容不符
-7-帳戶已結清
-8-印鑑不清
-9-其他
-A-未收到授權書
-B-用戶號碼錯誤
-C-靜止戶
-D-未收到聲明書
-E-授權書資料不全
-F-警示戶
-G-本帳戶不適用授權扣繳
-H-已於他行授權扣款
-I-該用戶已死亡
-Z-未交易或匯入失敗資料</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:AchAuthCode
-A:紙本新增
-O:舊檔轉換</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:RelationCode
-00本人
-01夫
-02妻
-03父
-04母
-05子
-06女
-07兄
-08弟
-09姊
-10妹
-11姪子
-99其他</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:Sex</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode:AmlCheckItem
-0.非可疑名單/已完成名單確認
-1.需審查/確認
-2.為凍結名單/未確定名單</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AchAuthLogHistory</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -439,6 +380,65 @@
 Z:暫停授權
 Y:恢復授權</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.AuthStatus
+空白:未授權
+0:成功授權/取消授權
+1:印鑑不符
+2:無此帳號
+3:委繳戶統一編號不符
+4:已核印成功在案
+5:原交易不存在
+6:電子資料與授權書內容不符
+7:帳戶已結清
+8:印鑑不清
+9:其他
+A:未收到授權書
+B:用戶號碼錯誤
+C:靜止戶
+D:未收到聲明書
+E:授權書資料不全
+F:警示戶
+G:本帳戶不適用授權扣繳
+H:已於他行授權扣款
+I:該用戶已死亡
+Z:未交易或匯入失敗資料</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.AchAuthCode
+A:紙本新增
+O:舊檔轉換</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.RelationCode
+00:本人
+01:夫
+02:妻
+03:父
+04:母
+05:子
+06:女
+07:兄
+08:弟
+09:姊
+10:妹
+11:姪子
+99:其他</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.Sex</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.AmlCheckItem
+0:非可疑名單/已完成名單確認
+1:需審查/確認
+2:為凍結名單/未確定名單</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1082,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1103,10 +1103,10 @@
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>35</v>
@@ -1221,13 +1221,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
@@ -1342,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="48.6">
@@ -1422,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1530,7 +1530,7 @@
         <v>53</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>59</v>
@@ -1557,7 +1557,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1631,7 +1631,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="64.8">
@@ -1651,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:7">
